--- a/run_log/run_results/train_history/training_history_run_10.xlsx
+++ b/run_log/run_results/train_history/training_history_run_10.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.04860099777579308</v>
+        <v>0.1151670143008232</v>
       </c>
       <c r="B2">
-        <v>0.9852398633956909</v>
+        <v>0.9680072069168091</v>
       </c>
       <c r="C2">
-        <v>0.01052322704344988</v>
+        <v>0.1076900437474251</v>
       </c>
       <c r="D2">
-        <v>0.9984683990478516</v>
+        <v>0.9787644743919373</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.008031765930354595</v>
+        <v>0.03377153724431992</v>
       </c>
       <c r="B3">
-        <v>0.9983930587768555</v>
+        <v>0.989281177520752</v>
       </c>
       <c r="C3">
-        <v>0.008034404367208481</v>
+        <v>0.03005184419453144</v>
       </c>
       <c r="D3">
-        <v>0.9985862374305725</v>
+        <v>0.9964147806167603</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.003429761389270425</v>
+        <v>0.02551163733005524</v>
       </c>
       <c r="B4">
-        <v>0.9990675449371338</v>
+        <v>0.989976704120636</v>
       </c>
       <c r="C4">
-        <v>0.002629820257425308</v>
+        <v>0.02278888784348965</v>
       </c>
       <c r="D4">
-        <v>0.9991753101348877</v>
+        <v>0.9964147806167603</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.002397059928625822</v>
+        <v>0.02049458771944046</v>
       </c>
       <c r="B5">
-        <v>0.9994841814041138</v>
+        <v>0.9904676079750061</v>
       </c>
       <c r="C5">
-        <v>0.0008730212575756013</v>
+        <v>0.0222640298306942</v>
       </c>
       <c r="D5">
-        <v>0.9995287656784058</v>
+        <v>0.9975179433822632</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.001412034151144326</v>
+        <v>0.01360207796096802</v>
       </c>
       <c r="B6">
-        <v>0.9996429085731506</v>
+        <v>0.9920427203178406</v>
       </c>
       <c r="C6">
-        <v>0.0005379679496400058</v>
+        <v>0.0151344295591116</v>
       </c>
       <c r="D6">
-        <v>0.9998821616172791</v>
+        <v>0.9986210465431213</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.001124434755183756</v>
+        <v>0.01154210232198238</v>
       </c>
       <c r="B7">
-        <v>0.9997619390487671</v>
+        <v>0.9952951669692993</v>
       </c>
       <c r="C7">
-        <v>0.0006859134882688522</v>
+        <v>0.01293700188398361</v>
       </c>
       <c r="D7">
-        <v>0.9998821616172791</v>
+        <v>0.9991726279258728</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.0006060160812921822</v>
+        <v>0.01202597934752703</v>
       </c>
       <c r="B8">
-        <v>0.9998412728309631</v>
+        <v>0.994640588760376</v>
       </c>
       <c r="C8">
-        <v>0.0005840756930410862</v>
+        <v>0.01113915164023638</v>
       </c>
       <c r="D8">
-        <v>0.9997643828392029</v>
+        <v>0.9991726279258728</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.0004618508392013609</v>
+        <v>0.01160701457411051</v>
       </c>
       <c r="B9">
-        <v>0.9998611211776733</v>
+        <v>0.9944360256195068</v>
       </c>
       <c r="C9">
-        <v>4.303641981096007E-05</v>
+        <v>0.0103907473385334</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.9991726279258728</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.001050336752086878</v>
+        <v>0.01071163639426231</v>
       </c>
       <c r="B10">
-        <v>0.9997420907020569</v>
+        <v>0.9949678778648376</v>
       </c>
       <c r="C10">
-        <v>0.0007035976159386337</v>
+        <v>0.02177252061665058</v>
       </c>
       <c r="D10">
-        <v>0.9996465444564819</v>
+        <v>0.9983452558517456</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.0007499364437535405</v>
+        <v>0.01132739800959826</v>
       </c>
       <c r="B11">
-        <v>0.9998016357421875</v>
+        <v>0.9949883222579956</v>
       </c>
       <c r="C11">
-        <v>0.0003989651158917695</v>
+        <v>0.01582029275596142</v>
       </c>
       <c r="D11">
-        <v>0.9998821616172791</v>
+        <v>0.9983452558517456</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.0007030899869278073</v>
+        <v>0.01048427820205688</v>
       </c>
       <c r="B12">
-        <v>0.9997817873954773</v>
+        <v>0.9951110482215881</v>
       </c>
       <c r="C12">
-        <v>1.888709675768041E-06</v>
+        <v>0.01228185556828976</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.9991726279258728</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.0001132480028900318</v>
+        <v>0.0112099964171648</v>
       </c>
       <c r="B13">
-        <v>0.9999603033065796</v>
+        <v>0.9944974184036255</v>
       </c>
       <c r="C13">
-        <v>3.443786772550084E-05</v>
+        <v>0.01321412995457649</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.9991726279258728</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.0005798868951387703</v>
+        <v>0.01039063464850187</v>
       </c>
       <c r="B14">
-        <v>0.9999008178710938</v>
+        <v>0.9949883222579956</v>
       </c>
       <c r="C14">
-        <v>2.234032035630662E-05</v>
+        <v>0.00936440285295248</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.9991726279258728</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.0003104105417151004</v>
+        <v>0.01039623189717531</v>
       </c>
       <c r="B15">
-        <v>0.9999008178710938</v>
+        <v>0.9949269890785217</v>
       </c>
       <c r="C15">
-        <v>0.0008635178674012423</v>
+        <v>0.01437363214790821</v>
       </c>
       <c r="D15">
-        <v>0.9998821616172791</v>
+        <v>0.9983452558517456</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0001488644775236025</v>
+        <v>0.01045603770762682</v>
       </c>
       <c r="B16">
-        <v>0.9999603033065796</v>
+        <v>0.9949474334716797</v>
       </c>
       <c r="C16">
-        <v>3.718991865753196E-05</v>
+        <v>0.01627470925450325</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.9983452558517456</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0003046497004106641</v>
+        <v>0.01105298940092325</v>
       </c>
       <c r="B17">
-        <v>0.9998809695243835</v>
+        <v>0.9949474334716797</v>
       </c>
       <c r="C17">
-        <v>1.730475923977792E-05</v>
+        <v>0.01197761856019497</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.9991726279258728</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>1.156541929958621E-05</v>
+        <v>0.01121274102479219</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0.9945178627967834</v>
       </c>
       <c r="C18">
-        <v>1.233963757840684E-06</v>
+        <v>0.01125524193048477</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.9991726279258728</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.0005808955174870789</v>
+        <v>0.01078939530998468</v>
       </c>
       <c r="B19">
-        <v>0.9998016357421875</v>
+        <v>0.9949883222579956</v>
       </c>
       <c r="C19">
-        <v>0.0003707756986841559</v>
+        <v>0.01310808397829533</v>
       </c>
       <c r="D19">
-        <v>0.9998821616172791</v>
+        <v>0.9991726279258728</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.0003722095862030983</v>
+        <v>0.01093446556478739</v>
       </c>
       <c r="B20">
-        <v>0.9999008178710938</v>
+        <v>0.994640588760376</v>
       </c>
       <c r="C20">
-        <v>0.0003864128957502544</v>
+        <v>0.01511598285287619</v>
       </c>
       <c r="D20">
-        <v>0.9998821616172791</v>
+        <v>0.9980695247650146</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>4.437195912032621E-06</v>
+        <v>0.0107086505740881</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0.9946610331535339</v>
       </c>
       <c r="C21">
-        <v>0.000316211226163432</v>
+        <v>0.0160983894020319</v>
       </c>
       <c r="D21">
-        <v>0.9998821616172791</v>
+        <v>0.9983452558517456</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.0006916904239915311</v>
+        <v>0.01203931495547295</v>
       </c>
       <c r="B22">
-        <v>0.9998611211776733</v>
+        <v>0.9945791959762573</v>
       </c>
       <c r="C22">
-        <v>0.001866011880338192</v>
+        <v>0.01238434761762619</v>
       </c>
       <c r="D22">
-        <v>0.9997643828392029</v>
+        <v>0.9986210465431213</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.0003271414316259325</v>
+        <v>0.01100021135061979</v>
       </c>
       <c r="B23">
-        <v>0.9999404549598694</v>
+        <v>0.9945996999740601</v>
       </c>
       <c r="C23">
-        <v>0.0003224342071916908</v>
+        <v>0.0139040919020772</v>
       </c>
       <c r="D23">
-        <v>0.9998821616172791</v>
+        <v>0.9986210465431213</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>1.253773007192649E-05</v>
+        <v>0.01091726124286652</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0.9946610331535339</v>
       </c>
       <c r="C24">
-        <v>0.0005115584935992956</v>
+        <v>0.009983655996620655</v>
       </c>
       <c r="D24">
-        <v>0.9998821616172791</v>
+        <v>0.9986210465431213</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.0001823989296099171</v>
+        <v>0.01047796104103327</v>
       </c>
       <c r="B25">
-        <v>0.999920666217804</v>
+        <v>0.994640588760376</v>
       </c>
       <c r="C25">
-        <v>3.242271077397163E-06</v>
+        <v>0.01360619533807039</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0.9986210465431213</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.0002277499152114615</v>
+        <v>0.01035511400550604</v>
       </c>
       <c r="B26">
-        <v>0.9999603033065796</v>
+        <v>0.9948451519012451</v>
       </c>
       <c r="C26">
-        <v>1.342588006991718E-06</v>
+        <v>0.007459980901330709</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.9988968372344971</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>7.593206828460097E-05</v>
+        <v>0.0109701044857502</v>
       </c>
       <c r="B27">
-        <v>0.9999801516532898</v>
+        <v>0.9954178929328918</v>
       </c>
       <c r="C27">
-        <v>2.574278732936364E-05</v>
+        <v>0.01117826718837023</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0.9988968372344971</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>9.10272283363156E-05</v>
+        <v>0.009700404480099678</v>
       </c>
       <c r="B28">
-        <v>0.9999801516532898</v>
+        <v>0.995602011680603</v>
       </c>
       <c r="C28">
-        <v>3.217144595168975E-08</v>
+        <v>0.01277806051075459</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0.9991726279258728</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>1.794544368749484E-05</v>
+        <v>0.01026285719126463</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0.9950292706489563</v>
       </c>
       <c r="C29">
-        <v>0.001223119092173874</v>
+        <v>0.009460967965424061</v>
       </c>
       <c r="D29">
-        <v>0.9998821616172791</v>
+        <v>0.9986210465431213</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.0002011128526646644</v>
+        <v>0.01055009663105011</v>
       </c>
       <c r="B30">
-        <v>0.9999603033065796</v>
+        <v>0.9947837591171265</v>
       </c>
       <c r="C30">
-        <v>5.378844434744678E-06</v>
+        <v>0.01394523587077856</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0.9988968372344971</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.0003163419896736741</v>
+        <v>0.009984692558646202</v>
       </c>
       <c r="B31">
-        <v>0.9999008178710938</v>
+        <v>0.9952542781829834</v>
       </c>
       <c r="C31">
-        <v>0.0002323033986613154</v>
+        <v>0.01364957075566053</v>
       </c>
       <c r="D31">
-        <v>0.9998821616172791</v>
+        <v>0.9986210465431213</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>2.757614765869221E-06</v>
+        <v>0.009636911563575268</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0.9950292706489563</v>
       </c>
       <c r="C32">
-        <v>0.0004622710112016648</v>
+        <v>0.01593679748475552</v>
       </c>
       <c r="D32">
-        <v>0.9998821616172791</v>
+        <v>0.9991726279258728</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.0003545051440596581</v>
+        <v>0.009974710643291473</v>
       </c>
       <c r="B33">
-        <v>0.9999603033065796</v>
+        <v>0.9953156113624573</v>
       </c>
       <c r="C33">
-        <v>8.115342353676169E-08</v>
+        <v>0.01925434172153473</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0.9980695247650146</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>6.138122262200341E-05</v>
+        <v>0.01019893866032362</v>
       </c>
       <c r="B34">
-        <v>0.9999801516532898</v>
+        <v>0.9948451519012451</v>
       </c>
       <c r="C34">
-        <v>7.796254067216069E-05</v>
+        <v>0.01827728562057018</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0.9991726279258728</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>3.279147495049983E-05</v>
+        <v>0.01052526105195284</v>
       </c>
       <c r="B35">
-        <v>0.9999801516532898</v>
+        <v>0.9951315522193909</v>
       </c>
       <c r="C35">
-        <v>0.0006055237026885152</v>
+        <v>0.01648190803825855</v>
       </c>
       <c r="D35">
-        <v>0.9998821616172791</v>
+        <v>0.9986210465431213</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.000292754324618727</v>
+        <v>0.0113256424665451</v>
       </c>
       <c r="B36">
-        <v>0.999920666217804</v>
+        <v>0.9944769740104675</v>
       </c>
       <c r="C36">
-        <v>2.432385493023048E-08</v>
+        <v>0.01323280856013298</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0.9991726279258728</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>1.983395577553893E-06</v>
+        <v>0.009807305410504341</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0.9953156113624573</v>
       </c>
       <c r="C37">
-        <v>5.726641916226072E-08</v>
+        <v>0.01340371277183294</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0.9991726279258728</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>6.339862011373043E-05</v>
+        <v>0.01031882874667645</v>
       </c>
       <c r="B38">
-        <v>0.9999603033065796</v>
+        <v>0.9947837591171265</v>
       </c>
       <c r="C38">
-        <v>6.788233804400079E-06</v>
+        <v>0.01601662673056126</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.9988968372344971</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.0001379293098580092</v>
+        <v>0.009958542883396149</v>
       </c>
       <c r="B39">
-        <v>0.9999404549598694</v>
+        <v>0.9951315522193909</v>
       </c>
       <c r="C39">
-        <v>0.001971120247617364</v>
+        <v>0.01539130602031946</v>
       </c>
       <c r="D39">
-        <v>0.9997643828392029</v>
+        <v>0.9988968372344971</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.0003065625205636024</v>
+        <v>0.009725025855004787</v>
       </c>
       <c r="B40">
-        <v>0.9999404549598694</v>
+        <v>0.995602011680603</v>
       </c>
       <c r="C40">
-        <v>0.001169172115623951</v>
+        <v>0.01417617592960596</v>
       </c>
       <c r="D40">
-        <v>0.9998821616172791</v>
+        <v>0.9991726279258728</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>7.195873877208214E-06</v>
+        <v>0.010613146238029</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0.994886040687561</v>
       </c>
       <c r="C41">
-        <v>0.0008068509632721543</v>
+        <v>0.01684320531785488</v>
       </c>
       <c r="D41">
-        <v>0.9998821616172791</v>
+        <v>0.9991726279258728</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>1.969701628468101E-07</v>
+        <v>0.01019390113651752</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0.994640588760376</v>
       </c>
       <c r="C42">
-        <v>0.0007964908145368099</v>
+        <v>0.02538632787764072</v>
       </c>
       <c r="D42">
-        <v>0.9998821616172791</v>
+        <v>0.9986210465431213</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.0007878844044171274</v>
+        <v>0.01104004960507154</v>
       </c>
       <c r="B43">
-        <v>0.9999008178710938</v>
+        <v>0.9949269890785217</v>
       </c>
       <c r="C43">
-        <v>5.177384991839062E-07</v>
+        <v>0.0166435856372118</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0.9991726279258728</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.0001705871836747974</v>
+        <v>0.01068101357668638</v>
       </c>
       <c r="B44">
-        <v>0.9999603033065796</v>
+        <v>0.995356559753418</v>
       </c>
       <c r="C44">
-        <v>4.169590681613045E-07</v>
+        <v>0.005823639687150717</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0.9997242093086243</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>5.420033994596452E-05</v>
+        <v>0.01098092366009951</v>
       </c>
       <c r="B45">
-        <v>0.9999603033065796</v>
+        <v>0.9951315522193909</v>
       </c>
       <c r="C45">
-        <v>4.537549466476776E-05</v>
+        <v>0.01703402958810329</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0.9991726279258728</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.0001438853796571493</v>
+        <v>0.01040267013013363</v>
       </c>
       <c r="B46">
-        <v>0.9999404549598694</v>
+        <v>0.9947019815444946</v>
       </c>
       <c r="C46">
-        <v>1.616266160908708E-07</v>
+        <v>0.01886876113712788</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0.9991726279258728</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.0001558749936521053</v>
+        <v>0.01065365131944418</v>
       </c>
       <c r="B47">
-        <v>0.9999603033065796</v>
+        <v>0.9945996999740601</v>
       </c>
       <c r="C47">
-        <v>3.70521803461088E-07</v>
+        <v>0.02223456464707851</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0.9988968372344971</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.0007089439313858747</v>
+        <v>0.01165830809623003</v>
       </c>
       <c r="B48">
-        <v>0.9999603033065796</v>
+        <v>0.9943132996559143</v>
       </c>
       <c r="C48">
-        <v>1.847443797942105E-07</v>
+        <v>0.02060576342046261</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0.9991726279258728</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.0001256777322851121</v>
+        <v>0.01000626850873232</v>
       </c>
       <c r="B49">
-        <v>0.9999603033065796</v>
+        <v>0.9951928853988647</v>
       </c>
       <c r="C49">
-        <v>1.090332079911605E-05</v>
+        <v>0.01971776969730854</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0.9991726279258728</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>9.50670255406294E-07</v>
+        <v>0.01030280441045761</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0.9951315522193909</v>
       </c>
       <c r="C50">
-        <v>1.519982902209449E-06</v>
+        <v>0.02359041757881641</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0.9988968372344971</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.0002489423786755651</v>
+        <v>0.01173094287514687</v>
       </c>
       <c r="B51">
-        <v>0.9999801516532898</v>
+        <v>0.9945996999740601</v>
       </c>
       <c r="C51">
-        <v>2.252588728879346E-06</v>
+        <v>0.01725848950445652</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0.9983452558517456</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_10.xlsx
+++ b/run_log/run_results/train_history/training_history_run_10.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.1151670143008232</v>
+        <v>0.0609700120985508</v>
       </c>
       <c r="B2">
-        <v>0.9680072069168091</v>
+        <v>0.9848241806030273</v>
       </c>
       <c r="C2">
-        <v>0.1076900437474251</v>
+        <v>0.01865122653543949</v>
       </c>
       <c r="D2">
-        <v>0.9787644743919373</v>
+        <v>0.9973869323730469</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.03377153724431992</v>
+        <v>0.009699323214590549</v>
       </c>
       <c r="B3">
-        <v>0.989281177520752</v>
+        <v>0.998573362827301</v>
       </c>
       <c r="C3">
-        <v>0.03005184419453144</v>
+        <v>0.009068938903510571</v>
       </c>
       <c r="D3">
-        <v>0.9964147806167603</v>
+        <v>0.9977889657020569</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.02551163733005524</v>
+        <v>0.005020159762352705</v>
       </c>
       <c r="B4">
-        <v>0.989976704120636</v>
+        <v>0.9988051652908325</v>
       </c>
       <c r="C4">
-        <v>0.02278888784348965</v>
+        <v>0.004236927721649408</v>
       </c>
       <c r="D4">
-        <v>0.9964147806167603</v>
+        <v>0.9981909394264221</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.02049458771944046</v>
+        <v>0.002538583241403103</v>
       </c>
       <c r="B5">
-        <v>0.9904676079750061</v>
+        <v>0.9992867112159729</v>
       </c>
       <c r="C5">
-        <v>0.0222640298306942</v>
+        <v>0.0008564945892430842</v>
       </c>
       <c r="D5">
-        <v>0.9975179433822632</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.01360207796096802</v>
+        <v>0.001806184882298112</v>
       </c>
       <c r="B6">
-        <v>0.9920427203178406</v>
+        <v>0.9995898604393005</v>
       </c>
       <c r="C6">
-        <v>0.0151344295591116</v>
+        <v>0.0004952636081725359</v>
       </c>
       <c r="D6">
-        <v>0.9986210465431213</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.01154210232198238</v>
+        <v>0.00122053746599704</v>
       </c>
       <c r="B7">
-        <v>0.9952951669692993</v>
+        <v>0.9997503161430359</v>
       </c>
       <c r="C7">
-        <v>0.01293700188398361</v>
+        <v>0.0003024678735528141</v>
       </c>
       <c r="D7">
-        <v>0.9991726279258728</v>
+        <v>0.9997990131378174</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.01202597934752703</v>
+        <v>0.001420272863470018</v>
       </c>
       <c r="B8">
-        <v>0.994640588760376</v>
+        <v>0.9996968507766724</v>
       </c>
       <c r="C8">
-        <v>0.01113915164023638</v>
+        <v>8.746654202695936E-05</v>
       </c>
       <c r="D8">
-        <v>0.9991726279258728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.01160701457411051</v>
+        <v>0.0007689269259572029</v>
       </c>
       <c r="B9">
-        <v>0.9944360256195068</v>
+        <v>0.9997860193252563</v>
       </c>
       <c r="C9">
-        <v>0.0103907473385334</v>
+        <v>0.0001022857177304104</v>
       </c>
       <c r="D9">
-        <v>0.9991726279258728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.01071163639426231</v>
+        <v>0.00162713963072747</v>
       </c>
       <c r="B10">
-        <v>0.9949678778648376</v>
+        <v>0.9997146725654602</v>
       </c>
       <c r="C10">
-        <v>0.02177252061665058</v>
+        <v>8.391196752199903E-05</v>
       </c>
       <c r="D10">
-        <v>0.9983452558517456</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.01132739800959826</v>
+        <v>0.0006352785276249051</v>
       </c>
       <c r="B11">
-        <v>0.9949883222579956</v>
+        <v>0.9998930096626282</v>
       </c>
       <c r="C11">
-        <v>0.01582029275596142</v>
+        <v>3.402368020033464E-05</v>
       </c>
       <c r="D11">
-        <v>0.9983452558517456</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.01048427820205688</v>
+        <v>0.0006416210671886802</v>
       </c>
       <c r="B12">
-        <v>0.9951110482215881</v>
+        <v>0.9998394846916199</v>
       </c>
       <c r="C12">
-        <v>0.01228185556828976</v>
+        <v>3.27190755342599E-05</v>
       </c>
       <c r="D12">
-        <v>0.9991726279258728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.0112099964171648</v>
+        <v>0.001049440004862845</v>
       </c>
       <c r="B13">
-        <v>0.9944974184036255</v>
+        <v>0.9997681975364685</v>
       </c>
       <c r="C13">
-        <v>0.01321412995457649</v>
+        <v>2.287676215928514E-05</v>
       </c>
       <c r="D13">
-        <v>0.9991726279258728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.01039063464850187</v>
+        <v>0.0003085793869104236</v>
       </c>
       <c r="B14">
-        <v>0.9949883222579956</v>
+        <v>0.999910831451416</v>
       </c>
       <c r="C14">
-        <v>0.00936440285295248</v>
+        <v>9.450728248339146E-05</v>
       </c>
       <c r="D14">
-        <v>0.9991726279258728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.01039623189717531</v>
+        <v>0.0009080973104573786</v>
       </c>
       <c r="B15">
-        <v>0.9949269890785217</v>
+        <v>0.9998038411140442</v>
       </c>
       <c r="C15">
-        <v>0.01437363214790821</v>
+        <v>5.411836809798842E-06</v>
       </c>
       <c r="D15">
-        <v>0.9983452558517456</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.01045603770762682</v>
+        <v>0.0004154359921813011</v>
       </c>
       <c r="B16">
-        <v>0.9949474334716797</v>
+        <v>0.9998573660850525</v>
       </c>
       <c r="C16">
-        <v>0.01627470925450325</v>
+        <v>3.545280151229235E-06</v>
       </c>
       <c r="D16">
-        <v>0.9983452558517456</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.01105298940092325</v>
+        <v>0.0006451503140851855</v>
       </c>
       <c r="B17">
-        <v>0.9949474334716797</v>
+        <v>0.9999643564224243</v>
       </c>
       <c r="C17">
-        <v>0.01197761856019497</v>
+        <v>5.901569693378406E-06</v>
       </c>
       <c r="D17">
-        <v>0.9991726279258728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.01121274102479219</v>
+        <v>0.0004152987676206976</v>
       </c>
       <c r="B18">
-        <v>0.9945178627967834</v>
+        <v>0.9998573660850525</v>
       </c>
       <c r="C18">
-        <v>0.01125524193048477</v>
+        <v>4.173203706159256E-06</v>
       </c>
       <c r="D18">
-        <v>0.9991726279258728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.01078939530998468</v>
+        <v>0.000553894555196166</v>
       </c>
       <c r="B19">
-        <v>0.9949883222579956</v>
+        <v>0.999910831451416</v>
       </c>
       <c r="C19">
-        <v>0.01310808397829533</v>
+        <v>3.872068248256255E-07</v>
       </c>
       <c r="D19">
-        <v>0.9991726279258728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.01093446556478739</v>
+        <v>0.0004408551612868905</v>
       </c>
       <c r="B20">
-        <v>0.994640588760376</v>
+        <v>0.9998930096626282</v>
       </c>
       <c r="C20">
-        <v>0.01511598285287619</v>
+        <v>8.610165309619333E-07</v>
       </c>
       <c r="D20">
-        <v>0.9980695247650146</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.0107086505740881</v>
+        <v>0.0003552399866748601</v>
       </c>
       <c r="B21">
-        <v>0.9946610331535339</v>
+        <v>0.9998930096626282</v>
       </c>
       <c r="C21">
-        <v>0.0160983894020319</v>
+        <v>3.56089401520876E-07</v>
       </c>
       <c r="D21">
-        <v>0.9983452558517456</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.01203931495547295</v>
+        <v>0.0003149453259538859</v>
       </c>
       <c r="B22">
-        <v>0.9945791959762573</v>
+        <v>0.9999464750289917</v>
       </c>
       <c r="C22">
-        <v>0.01238434761762619</v>
+        <v>1.388690975545614E-07</v>
       </c>
       <c r="D22">
-        <v>0.9986210465431213</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.01100021135061979</v>
+        <v>0.0002008400042541325</v>
       </c>
       <c r="B23">
-        <v>0.9945996999740601</v>
+        <v>0.9999821782112122</v>
       </c>
       <c r="C23">
-        <v>0.0139040919020772</v>
+        <v>6.256043860730642E-08</v>
       </c>
       <c r="D23">
-        <v>0.9986210465431213</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.01091726124286652</v>
+        <v>0.0001034078450175002</v>
       </c>
       <c r="B24">
-        <v>0.9946610331535339</v>
+        <v>0.9999643564224243</v>
       </c>
       <c r="C24">
-        <v>0.009983655996620655</v>
+        <v>6.435783461711253E-08</v>
       </c>
       <c r="D24">
-        <v>0.9986210465431213</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.01047796104103327</v>
+        <v>0.0001139565647463314</v>
       </c>
       <c r="B25">
-        <v>0.994640588760376</v>
+        <v>0.9999643564224243</v>
       </c>
       <c r="C25">
-        <v>0.01360619533807039</v>
+        <v>1.74439431788187E-08</v>
       </c>
       <c r="D25">
-        <v>0.9986210465431213</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.01035511400550604</v>
+        <v>0.0002142307639587671</v>
       </c>
       <c r="B26">
-        <v>0.9948451519012451</v>
+        <v>0.9999464750289917</v>
       </c>
       <c r="C26">
-        <v>0.007459980901330709</v>
+        <v>8.460473566174187E-08</v>
       </c>
       <c r="D26">
-        <v>0.9988968372344971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.0109701044857502</v>
+        <v>0.0002401038655079901</v>
       </c>
       <c r="B27">
-        <v>0.9954178929328918</v>
+        <v>0.9999464750289917</v>
       </c>
       <c r="C27">
-        <v>0.01117826718837023</v>
+        <v>1.976817465276781E-08</v>
       </c>
       <c r="D27">
-        <v>0.9988968372344971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.009700404480099678</v>
+        <v>2.996850162162445E-05</v>
       </c>
       <c r="B28">
-        <v>0.995602011680603</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>0.01277806051075459</v>
+        <v>1.039930452861881E-08</v>
       </c>
       <c r="D28">
-        <v>0.9991726279258728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.01026285719126463</v>
+        <v>0.0002828243596013635</v>
       </c>
       <c r="B29">
-        <v>0.9950292706489563</v>
+        <v>0.9999286532402039</v>
       </c>
       <c r="C29">
-        <v>0.009460967965424061</v>
+        <v>1.610216138203668E-08</v>
       </c>
       <c r="D29">
-        <v>0.9986210465431213</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.01055009663105011</v>
+        <v>0.000713373941835016</v>
       </c>
       <c r="B30">
-        <v>0.9947837591171265</v>
+        <v>0.9998751878738403</v>
       </c>
       <c r="C30">
-        <v>0.01394523587077856</v>
+        <v>1.967234020128217E-08</v>
       </c>
       <c r="D30">
-        <v>0.9988968372344971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.009984692558646202</v>
+        <v>0.00068421580363065</v>
       </c>
       <c r="B31">
-        <v>0.9952542781829834</v>
+        <v>0.9998930096626282</v>
       </c>
       <c r="C31">
-        <v>0.01364957075566053</v>
+        <v>8.709644561122332E-08</v>
       </c>
       <c r="D31">
-        <v>0.9986210465431213</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.009636911563575268</v>
+        <v>0.0001019663468468934</v>
       </c>
       <c r="B32">
-        <v>0.9950292706489563</v>
+        <v>0.9999464750289917</v>
       </c>
       <c r="C32">
-        <v>0.01593679748475552</v>
+        <v>9.970057135433308E-08</v>
       </c>
       <c r="D32">
-        <v>0.9991726279258728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.009974710643291473</v>
+        <v>0.0004655737138818949</v>
       </c>
       <c r="B33">
-        <v>0.9953156113624573</v>
+        <v>0.999910831451416</v>
       </c>
       <c r="C33">
-        <v>0.01925434172153473</v>
+        <v>8.132216322565E-08</v>
       </c>
       <c r="D33">
-        <v>0.9980695247650146</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.01019893866032362</v>
+        <v>0.0004570386081468314</v>
       </c>
       <c r="B34">
-        <v>0.9948451519012451</v>
+        <v>0.999910831451416</v>
       </c>
       <c r="C34">
-        <v>0.01827728562057018</v>
+        <v>1.141917209679377E-07</v>
       </c>
       <c r="D34">
-        <v>0.9991726279258728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.01052526105195284</v>
+        <v>0.0005027658771723509</v>
       </c>
       <c r="B35">
-        <v>0.9951315522193909</v>
+        <v>0.9999464750289917</v>
       </c>
       <c r="C35">
-        <v>0.01648190803825855</v>
+        <v>4.013433141381029E-08</v>
       </c>
       <c r="D35">
-        <v>0.9986210465431213</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.0113256424665451</v>
+        <v>7.791847747284919E-05</v>
       </c>
       <c r="B36">
-        <v>0.9944769740104675</v>
+        <v>0.9999821782112122</v>
       </c>
       <c r="C36">
-        <v>0.01323280856013298</v>
+        <v>2.578201296898897E-08</v>
       </c>
       <c r="D36">
-        <v>0.9991726279258728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.009807305410504341</v>
+        <v>0.0001749493094393983</v>
       </c>
       <c r="B37">
-        <v>0.9953156113624573</v>
+        <v>0.9999821782112122</v>
       </c>
       <c r="C37">
-        <v>0.01340371277183294</v>
+        <v>7.931264534022375E-09</v>
       </c>
       <c r="D37">
-        <v>0.9991726279258728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.01031882874667645</v>
+        <v>5.001755562261678E-05</v>
       </c>
       <c r="B38">
-        <v>0.9947837591171265</v>
+        <v>0.9999821782112122</v>
       </c>
       <c r="C38">
-        <v>0.01601662673056126</v>
+        <v>6.900938043230553E-09</v>
       </c>
       <c r="D38">
-        <v>0.9988968372344971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.009958542883396149</v>
+        <v>1.515305848442949E-05</v>
       </c>
       <c r="B39">
-        <v>0.9951315522193909</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>0.01539130602031946</v>
+        <v>3.666126957568849E-09</v>
       </c>
       <c r="D39">
-        <v>0.9988968372344971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.009725025855004787</v>
+        <v>1.842087294789962E-05</v>
       </c>
       <c r="B40">
-        <v>0.995602011680603</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>0.01417617592960596</v>
+        <v>8.146963104138649E-10</v>
       </c>
       <c r="D40">
-        <v>0.9991726279258728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.010613146238029</v>
+        <v>0.0006934404955245554</v>
       </c>
       <c r="B41">
-        <v>0.994886040687561</v>
+        <v>0.9998930096626282</v>
       </c>
       <c r="C41">
-        <v>0.01684320531785488</v>
+        <v>1.408926397772348E-08</v>
       </c>
       <c r="D41">
-        <v>0.9991726279258728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.01019390113651752</v>
+        <v>1.472023177484516E-05</v>
       </c>
       <c r="B42">
-        <v>0.994640588760376</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>0.02538632787764072</v>
+        <v>6.445650235775702E-09</v>
       </c>
       <c r="D42">
-        <v>0.9986210465431213</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.01104004960507154</v>
+        <v>0.0001574500056449324</v>
       </c>
       <c r="B43">
-        <v>0.9949269890785217</v>
+        <v>0.9999643564224243</v>
       </c>
       <c r="C43">
-        <v>0.0166435856372118</v>
+        <v>3.043126417523467E-09</v>
       </c>
       <c r="D43">
-        <v>0.9991726279258728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.01068101357668638</v>
+        <v>0.0002356106997467577</v>
       </c>
       <c r="B44">
-        <v>0.995356559753418</v>
+        <v>0.9999464750289917</v>
       </c>
       <c r="C44">
-        <v>0.005823639687150717</v>
+        <v>1.293929186019227E-09</v>
       </c>
       <c r="D44">
-        <v>0.9997242093086243</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.01098092366009951</v>
+        <v>0.0006225730176083744</v>
       </c>
       <c r="B45">
-        <v>0.9951315522193909</v>
+        <v>0.999910831451416</v>
       </c>
       <c r="C45">
-        <v>0.01703402958810329</v>
+        <v>7.787487987798158E-09</v>
       </c>
       <c r="D45">
-        <v>0.9991726279258728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.01040267013013363</v>
+        <v>0.0002640956663526595</v>
       </c>
       <c r="B46">
-        <v>0.9947019815444946</v>
+        <v>0.9999286532402039</v>
       </c>
       <c r="C46">
-        <v>0.01886876113712788</v>
+        <v>2.707661650447335E-09</v>
       </c>
       <c r="D46">
-        <v>0.9991726279258728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.01065365131944418</v>
+        <v>0.0003335273650009185</v>
       </c>
       <c r="B47">
-        <v>0.9945996999740601</v>
+        <v>0.999910831451416</v>
       </c>
       <c r="C47">
-        <v>0.02223456464707851</v>
+        <v>8.098941961520723E-09</v>
       </c>
       <c r="D47">
-        <v>0.9988968372344971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.01165830809623003</v>
+        <v>1.525215884612408E-05</v>
       </c>
       <c r="B48">
-        <v>0.9943132996559143</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>0.02060576342046261</v>
+        <v>3.306691365168035E-09</v>
       </c>
       <c r="D48">
-        <v>0.9991726279258728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.01000626850873232</v>
+        <v>0.0003151391283608973</v>
       </c>
       <c r="B49">
-        <v>0.9951928853988647</v>
+        <v>0.999910831451416</v>
       </c>
       <c r="C49">
-        <v>0.01971776969730854</v>
+        <v>3.718592367363271E-08</v>
       </c>
       <c r="D49">
-        <v>0.9991726279258728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.01030280441045761</v>
+        <v>2.849831435014494E-05</v>
       </c>
       <c r="B50">
-        <v>0.9951315522193909</v>
+        <v>0.9999821782112122</v>
       </c>
       <c r="C50">
-        <v>0.02359041757881641</v>
+        <v>6.277922182107432E-09</v>
       </c>
       <c r="D50">
-        <v>0.9988968372344971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.01173094287514687</v>
+        <v>2.153246896341443E-05</v>
       </c>
       <c r="B51">
-        <v>0.9945996999740601</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>0.01725848950445652</v>
+        <v>3.809873305726796E-09</v>
       </c>
       <c r="D51">
-        <v>0.9983452558517456</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_10.xlsx
+++ b/run_log/run_results/train_history/training_history_run_10.xlsx
@@ -395,139 +395,139 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.0609700120985508</v>
+        <v>0.05435008928179741</v>
       </c>
       <c r="B2">
-        <v>0.9848241806030273</v>
+        <v>0.9844599366188049</v>
       </c>
       <c r="C2">
-        <v>0.01865122653543949</v>
+        <v>0.01748823188245296</v>
       </c>
       <c r="D2">
-        <v>0.9973869323730469</v>
+        <v>0.9967902898788452</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.009699323214590549</v>
+        <v>0.008115260861814022</v>
       </c>
       <c r="B3">
-        <v>0.998573362827301</v>
+        <v>0.9985508918762207</v>
       </c>
       <c r="C3">
-        <v>0.009068938903510571</v>
+        <v>0.01094591990113258</v>
       </c>
       <c r="D3">
-        <v>0.9977889657020569</v>
+        <v>0.9973252415657043</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.005020159762352705</v>
+        <v>0.004289192613214254</v>
       </c>
       <c r="B4">
-        <v>0.9988051652908325</v>
+        <v>0.9987987279891968</v>
       </c>
       <c r="C4">
-        <v>0.004236927721649408</v>
+        <v>0.001903848722577095</v>
       </c>
       <c r="D4">
-        <v>0.9981909394264221</v>
+        <v>0.9992867112159729</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.002538583241403103</v>
+        <v>0.00175549800042063</v>
       </c>
       <c r="B5">
-        <v>0.9992867112159729</v>
+        <v>0.9995042681694031</v>
       </c>
       <c r="C5">
-        <v>0.0008564945892430842</v>
+        <v>0.001479708007536829</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.9996433854103088</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.001806184882298112</v>
+        <v>0.001832536770962179</v>
       </c>
       <c r="B6">
-        <v>0.9995898604393005</v>
+        <v>0.9995423555374146</v>
       </c>
       <c r="C6">
-        <v>0.0004952636081725359</v>
+        <v>0.001561190700158477</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.9996433854103088</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.00122053746599704</v>
+        <v>0.001302260672673583</v>
       </c>
       <c r="B7">
-        <v>0.9997503161430359</v>
+        <v>0.999733030796051</v>
       </c>
       <c r="C7">
-        <v>0.0003024678735528141</v>
+        <v>0.000780583533924073</v>
       </c>
       <c r="D7">
-        <v>0.9997990131378174</v>
+        <v>0.999821662902832</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.001420272863470018</v>
+        <v>0.0008436710340902209</v>
       </c>
       <c r="B8">
-        <v>0.9996968507766724</v>
+        <v>0.999733030796051</v>
       </c>
       <c r="C8">
-        <v>8.746654202695936E-05</v>
+        <v>0.001642719144001603</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.9994650483131409</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.0007689269259572029</v>
+        <v>0.001200058031827211</v>
       </c>
       <c r="B9">
-        <v>0.9997860193252563</v>
+        <v>0.9996758699417114</v>
       </c>
       <c r="C9">
-        <v>0.0001022857177304104</v>
+        <v>0.000322716950904578</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.999821662902832</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.00162713963072747</v>
+        <v>0.0006467446219176054</v>
       </c>
       <c r="B10">
-        <v>0.9997146725654602</v>
+        <v>0.9997902512550354</v>
       </c>
       <c r="C10">
-        <v>8.391196752199903E-05</v>
+        <v>0.0002208898804383352</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.999821662902832</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.0006352785276249051</v>
+        <v>0.0004124153929296881</v>
       </c>
       <c r="B11">
-        <v>0.9998930096626282</v>
+        <v>0.9998474717140198</v>
       </c>
       <c r="C11">
-        <v>3.402368020033464E-05</v>
+        <v>1.239955417986494E-05</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -535,27 +535,27 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.0006416210671886802</v>
+        <v>0.0004468293336685747</v>
       </c>
       <c r="B12">
-        <v>0.9998394846916199</v>
+        <v>0.999885618686676</v>
       </c>
       <c r="C12">
-        <v>3.27190755342599E-05</v>
+        <v>0.0001524301915196702</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.999821662902832</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.001049440004862845</v>
+        <v>0.0004008092801086605</v>
       </c>
       <c r="B13">
-        <v>0.9997681975364685</v>
+        <v>0.9998093247413635</v>
       </c>
       <c r="C13">
-        <v>2.287676215928514E-05</v>
+        <v>4.625871952157468E-06</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -563,13 +563,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.0003085793869104236</v>
+        <v>0.0004431596025824547</v>
       </c>
       <c r="B14">
-        <v>0.999910831451416</v>
+        <v>0.999885618686676</v>
       </c>
       <c r="C14">
-        <v>9.450728248339146E-05</v>
+        <v>3.91287831007503E-05</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -577,13 +577,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.0009080973104573786</v>
+        <v>0.001117561594583094</v>
       </c>
       <c r="B15">
-        <v>0.9998038411140442</v>
+        <v>0.9997902512550354</v>
       </c>
       <c r="C15">
-        <v>5.411836809798842E-06</v>
+        <v>2.446358848828822E-06</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -591,13 +591,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0004154359921813011</v>
+        <v>0.0002002900291699916</v>
       </c>
       <c r="B16">
-        <v>0.9998573660850525</v>
+        <v>0.999885618686676</v>
       </c>
       <c r="C16">
-        <v>3.545280151229235E-06</v>
+        <v>1.880382478702813E-05</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -605,27 +605,27 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0006451503140851855</v>
+        <v>0.0006398882833309472</v>
       </c>
       <c r="B17">
-        <v>0.9999643564224243</v>
+        <v>0.9997902512550354</v>
       </c>
       <c r="C17">
-        <v>5.901569693378406E-06</v>
+        <v>0.0003039447474293411</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.9996433854103088</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.0004152987676206976</v>
+        <v>0.0006364987348206341</v>
       </c>
       <c r="B18">
-        <v>0.9998573660850525</v>
+        <v>0.9998474717140198</v>
       </c>
       <c r="C18">
-        <v>4.173203706159256E-06</v>
+        <v>4.66250594399753E-06</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -633,13 +633,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.000553894555196166</v>
+        <v>0.0001642543356865644</v>
       </c>
       <c r="B19">
-        <v>0.999910831451416</v>
+        <v>0.9999809265136719</v>
       </c>
       <c r="C19">
-        <v>3.872068248256255E-07</v>
+        <v>1.440150026610354E-05</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -647,13 +647,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.0004408551612868905</v>
+        <v>0.0004743355966638774</v>
       </c>
       <c r="B20">
-        <v>0.9998930096626282</v>
+        <v>0.9998665452003479</v>
       </c>
       <c r="C20">
-        <v>8.610165309619333E-07</v>
+        <v>1.666354478402354E-06</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -661,13 +661,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.0003552399866748601</v>
+        <v>0.0003056821005884558</v>
       </c>
       <c r="B21">
-        <v>0.9998930096626282</v>
+        <v>0.9999427795410156</v>
       </c>
       <c r="C21">
-        <v>3.56089401520876E-07</v>
+        <v>1.40697784445365E-05</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -675,13 +675,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.0003149453259538859</v>
+        <v>0.0002064280706690624</v>
       </c>
       <c r="B22">
-        <v>0.9999464750289917</v>
+        <v>0.9999046325683594</v>
       </c>
       <c r="C22">
-        <v>1.388690975545614E-07</v>
+        <v>2.480159082551836E-06</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -689,13 +689,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.0002008400042541325</v>
+        <v>0.000159033399540931</v>
       </c>
       <c r="B23">
-        <v>0.9999821782112122</v>
+        <v>0.9999427795410156</v>
       </c>
       <c r="C23">
-        <v>6.256043860730642E-08</v>
+        <v>3.35293952957727E-06</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -703,27 +703,27 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0001034078450175002</v>
+        <v>0.0005081337876617908</v>
       </c>
       <c r="B24">
-        <v>0.9999643564224243</v>
+        <v>0.9998665452003479</v>
       </c>
       <c r="C24">
-        <v>6.435783461711253E-08</v>
+        <v>0.0002165497135138139</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.999821662902832</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.0001139565647463314</v>
+        <v>0.0002997218689415604</v>
       </c>
       <c r="B25">
-        <v>0.9999643564224243</v>
+        <v>0.9999237060546875</v>
       </c>
       <c r="C25">
-        <v>1.74439431788187E-08</v>
+        <v>1.431106647942215E-05</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -731,13 +731,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.0002142307639587671</v>
+        <v>0.0002636550343595445</v>
       </c>
       <c r="B26">
-        <v>0.9999464750289917</v>
+        <v>0.9999427795410156</v>
       </c>
       <c r="C26">
-        <v>8.460473566174187E-08</v>
+        <v>3.478111921140226E-06</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -745,13 +745,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.0002401038655079901</v>
+        <v>4.461240678210743E-05</v>
       </c>
       <c r="B27">
-        <v>0.9999464750289917</v>
+        <v>0.9999809265136719</v>
       </c>
       <c r="C27">
-        <v>1.976817465276781E-08</v>
+        <v>6.517051224363968E-05</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -759,13 +759,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>2.996850162162445E-05</v>
+        <v>0.0007274065283127129</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0.9999046325683594</v>
       </c>
       <c r="C28">
-        <v>1.039930452861881E-08</v>
+        <v>1.134677495429059E-05</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -773,27 +773,27 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.0002828243596013635</v>
+        <v>0.0002211982209701091</v>
       </c>
       <c r="B29">
-        <v>0.9999286532402039</v>
+        <v>0.9999618530273438</v>
       </c>
       <c r="C29">
-        <v>1.610216138203668E-08</v>
+        <v>0.001560364267788827</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0.999821662902832</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.000713373941835016</v>
+        <v>0.0004530835140030831</v>
       </c>
       <c r="B30">
-        <v>0.9998751878738403</v>
+        <v>0.9999237060546875</v>
       </c>
       <c r="C30">
-        <v>1.967234020128217E-08</v>
+        <v>1.826351399358828E-05</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -801,27 +801,27 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.00068421580363065</v>
+        <v>0.0001113592588808388</v>
       </c>
       <c r="B31">
-        <v>0.9998930096626282</v>
+        <v>0.9999618530273438</v>
       </c>
       <c r="C31">
-        <v>8.709644561122332E-08</v>
+        <v>0.0003492028918117285</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0.999821662902832</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.0001019663468468934</v>
+        <v>0.0003438794519752264</v>
       </c>
       <c r="B32">
-        <v>0.9999464750289917</v>
+        <v>0.9999427795410156</v>
       </c>
       <c r="C32">
-        <v>9.970057135433308E-08</v>
+        <v>2.056075572909322E-05</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -829,13 +829,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.0004655737138818949</v>
+        <v>0.0002745004603639245</v>
       </c>
       <c r="B33">
-        <v>0.999910831451416</v>
+        <v>0.9998665452003479</v>
       </c>
       <c r="C33">
-        <v>8.132216322565E-08</v>
+        <v>1.885717097138695E-06</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -843,13 +843,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.0004570386081468314</v>
+        <v>0.0005310648120939732</v>
       </c>
       <c r="B34">
-        <v>0.999910831451416</v>
+        <v>0.9999237060546875</v>
       </c>
       <c r="C34">
-        <v>1.141917209679377E-07</v>
+        <v>6.786219273635652E-06</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -857,13 +857,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.0005027658771723509</v>
+        <v>0.0004477001202758402</v>
       </c>
       <c r="B35">
-        <v>0.9999464750289917</v>
+        <v>0.999885618686676</v>
       </c>
       <c r="C35">
-        <v>4.013433141381029E-08</v>
+        <v>2.977098574774573E-06</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -871,13 +871,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>7.791847747284919E-05</v>
+        <v>3.265546911279671E-05</v>
       </c>
       <c r="B36">
-        <v>0.9999821782112122</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>2.578201296898897E-08</v>
+        <v>1.813925882743206E-05</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -885,13 +885,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.0001749493094393983</v>
+        <v>2.224328272859566E-05</v>
       </c>
       <c r="B37">
-        <v>0.9999821782112122</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>7.931264534022375E-09</v>
+        <v>3.085166611072054E-07</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -899,13 +899,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>5.001755562261678E-05</v>
+        <v>0.0002350623981328681</v>
       </c>
       <c r="B38">
-        <v>0.9999821782112122</v>
+        <v>0.9999046325683594</v>
       </c>
       <c r="C38">
-        <v>6.900938043230553E-09</v>
+        <v>6.502752512460575E-06</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -913,13 +913,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>1.515305848442949E-05</v>
+        <v>0.0004320971493143588</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0.9999237060546875</v>
       </c>
       <c r="C39">
-        <v>3.666126957568849E-09</v>
+        <v>7.871895832067821E-06</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -927,13 +927,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>1.842087294789962E-05</v>
+        <v>0.0001643529103603214</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0.9999237060546875</v>
       </c>
       <c r="C40">
-        <v>8.146963104138649E-10</v>
+        <v>8.416612217843067E-06</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -941,13 +941,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.0006934404955245554</v>
+        <v>0.0001762539177434519</v>
       </c>
       <c r="B41">
-        <v>0.9998930096626282</v>
+        <v>0.9999427795410156</v>
       </c>
       <c r="C41">
-        <v>1.408926397772348E-08</v>
+        <v>3.116148050708034E-08</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -955,13 +955,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>1.472023177484516E-05</v>
+        <v>3.312867556815036E-05</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0.9999809265136719</v>
       </c>
       <c r="C42">
-        <v>6.445650235775702E-09</v>
+        <v>6.412402342448331E-08</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -969,13 +969,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.0001574500056449324</v>
+        <v>0.0005391839076764882</v>
       </c>
       <c r="B43">
-        <v>0.9999643564224243</v>
+        <v>0.9997902512550354</v>
       </c>
       <c r="C43">
-        <v>3.043126417523467E-09</v>
+        <v>1.292183515033685E-05</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -983,13 +983,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.0002356106997467577</v>
+        <v>0.0002767968690022826</v>
       </c>
       <c r="B44">
-        <v>0.9999464750289917</v>
+        <v>0.9999618530273438</v>
       </c>
       <c r="C44">
-        <v>1.293929186019227E-09</v>
+        <v>3.666962356874137E-06</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -997,27 +997,27 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.0006225730176083744</v>
+        <v>0.0001841589546529576</v>
       </c>
       <c r="B45">
-        <v>0.999910831451416</v>
+        <v>0.9999427795410156</v>
       </c>
       <c r="C45">
-        <v>7.787487987798158E-09</v>
+        <v>0.001688022050075233</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0.999821662902832</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.0002640956663526595</v>
+        <v>0.0002466020523570478</v>
       </c>
       <c r="B46">
-        <v>0.9999286532402039</v>
+        <v>0.9999046325683594</v>
       </c>
       <c r="C46">
-        <v>2.707661650447335E-09</v>
+        <v>9.921159289660864E-07</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.0003335273650009185</v>
+        <v>6.35948235867545E-05</v>
       </c>
       <c r="B47">
-        <v>0.999910831451416</v>
+        <v>0.9999809265136719</v>
       </c>
       <c r="C47">
-        <v>8.098941961520723E-09</v>
+        <v>1.256919176739757E-06</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1039,13 +1039,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>1.525215884612408E-05</v>
+        <v>1.011686163110426E-05</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>3.306691365168035E-09</v>
+        <v>3.656909484561766E-06</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1053,13 +1053,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.0003151391283608973</v>
+        <v>0.000664616993162781</v>
       </c>
       <c r="B49">
-        <v>0.999910831451416</v>
+        <v>0.999885618686676</v>
       </c>
       <c r="C49">
-        <v>3.718592367363271E-08</v>
+        <v>7.917800104451089E-08</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1067,13 +1067,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>2.849831435014494E-05</v>
+        <v>0.0007033126894384623</v>
       </c>
       <c r="B50">
-        <v>0.9999821782112122</v>
+        <v>0.9998665452003479</v>
       </c>
       <c r="C50">
-        <v>6.277922182107432E-09</v>
+        <v>2.501680683053564E-05</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1081,13 +1081,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>2.153246896341443E-05</v>
+        <v>1.468202026444487E-05</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>3.809873305726796E-09</v>
+        <v>1.690940916887484E-05</v>
       </c>
       <c r="D51">
         <v>1</v>
